--- a/biology/Mycologie/Stereum/Stereum.xlsx
+++ b/biology/Mycologie/Stereum/Stereum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stereum est un genre de champignons basidiomycètes de l'ordre des Russulales et de la famille des Stereaceae. De nombreuses espèces produisent une pourriture blanche plus ou moins active[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stereum est un genre de champignons basidiomycètes de l'ordre des Russulales et de la famille des Stereaceae. De nombreuses espèces produisent une pourriture blanche plus ou moins active.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum                                      (25 novembre 2013)[2] : liste incomplète :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (25 novembre 2013) : liste incomplète :
 Stereum acanthophysatum Rehill &amp; B.K. Bakshi 1966
 Stereum adnatum Lloyd 1925
 Stereum albostipitatum Lloyd 1913
@@ -601,7 +615,7 @@
 Stereum elegantissimum Speg. 1883
 Stereum elevatum Berk. &amp; Cooke 1877
 Stereum elongatum Lloyd 1923
-Selon NCBI  (8 oct. 2015)[3] :
+Selon NCBI  (8 oct. 2015) :
 Stereum armeniacum
 Stereum complicatum
 Stereum gausapatum
